--- a/plan/test/結合テスト/結合テスト仕様書-BP016注文ステータス更新(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP016注文ステータス更新(入力)画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA671D8-ACAA-4313-AE53-5994D4F43AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911E8009-3686-4F4D-8661-14E157163DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>作成者</t>
   </si>
@@ -659,6 +659,106 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「不正な操作」</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン前メニュー」画面が表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各テキスト入力項目：
+' OR '1'='1
+を入力
+（SQLインジェクション）</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列で表示</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各テキスト入力項目：
+&lt;script&gt;&lt;/script&gt;
+（XSS）</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/updateorderstatus/input」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/updateorderstatus/input」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -966,7 +1066,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1019,96 +1119,99 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1134,12 +1237,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1492,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1511,25 +1608,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1544,23 +1641,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1573,50 +1670,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="47"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1625,20 +1722,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="18" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1648,82 +1745,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="30"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1735,18 +1832,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1758,18 +1855,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="25" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1781,18 +1878,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="25" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1804,18 +1901,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="25" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1827,18 +1924,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="25" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1850,20 +1947,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1875,20 +1972,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="25" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1900,18 +1997,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="25" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1923,18 +2020,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="25" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1946,18 +2043,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="25" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1968,243 +2065,328 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="21" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="21" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="21" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="21" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="21" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="22" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+    </row>
+    <row r="27" spans="1:17" ht="62" customHeight="1">
+      <c r="A27" s="6">
+        <v>22</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="1:17" ht="61" customHeight="1">
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="1:17" ht="56.5" customHeight="1">
+      <c r="A29" s="6">
+        <v>24</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="17"/>
+    </row>
+    <row r="30" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A30" s="6">
+        <v>25</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
+  <mergeCells count="67">
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C15:G18"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H25:L25"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C15:G18"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
@@ -2212,20 +2394,46 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B27:B30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP016注文ステータス更新(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP016注文ステータス更新(入力)画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911E8009-3686-4F4D-8661-14E157163DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B36EB8-52B0-498E-8A3C-29CEC3D4A48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -653,16 +653,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニュー画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>セキュリティ確認</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
@@ -759,6 +749,19 @@
     </rPh>
     <rPh sb="69" eb="71">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面へ遷移し、セッションが破棄される</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1120,6 +1123,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1128,13 +1140,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1143,100 +1176,70 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1591,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1608,25 +1611,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1641,23 +1644,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="35" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1670,50 +1673,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1722,20 +1725,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1745,82 +1748,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="18" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1832,18 +1835,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="18" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1855,18 +1858,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="18" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1878,18 +1881,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="18" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1901,18 +1904,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="18" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1924,18 +1927,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="18" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1947,20 +1950,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1972,20 +1975,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="18" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1997,18 +2000,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="18" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2020,18 +2023,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="18" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2043,18 +2046,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="18" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2065,225 +2068,225 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="28" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="28" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="28" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="28" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="28" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="27" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="21" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
     </row>
     <row r="27" spans="1:17" ht="62" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2294,21 +2297,21 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2319,21 +2322,21 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2344,21 +2347,21 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -2367,6 +2370,60 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="C27:G27"/>
@@ -2380,60 +2437,6 @@
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="B27:B30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP016注文ステータス更新(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP016注文ステータス更新(入力)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B36EB8-52B0-498E-8A3C-29CEC3D4A48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A76CEC2-E444-45EB-965F-10E260E46F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -727,32 +727,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/updateorderstatus/input」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/updateorderstatus/input」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メニュー画面へ遷移し、セッションが破棄される</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -762,6 +736,32 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/updateorderstatus/input」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/updateorderstatus/input」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1123,6 +1123,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1131,14 +1140,80 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1165,81 +1240,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1594,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:L27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1611,25 +1611,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1644,23 +1644,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="50" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1673,50 +1673,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="39"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="39"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1725,20 +1725,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="41" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1748,82 +1748,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="41" t="s">
+      <c r="P5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="42"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="21" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1835,18 +1835,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="21" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1858,18 +1858,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="21" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1881,18 +1881,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="21" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1904,18 +1904,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="21" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1927,18 +1927,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="21" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1950,20 +1950,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1975,20 +1975,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="21" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2000,18 +2000,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="21" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2023,18 +2023,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="21" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2046,18 +2046,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="21" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2068,225 +2068,225 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="33" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="33" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="33" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="33" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="33" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="18" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="56" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="18" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="56" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
     </row>
     <row r="27" spans="1:17" ht="62" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="18" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="20"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2297,21 +2297,21 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="18" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2322,21 +2322,21 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="18" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2347,21 +2347,21 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="18" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -2370,60 +2370,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="C27:G27"/>
@@ -2437,6 +2383,60 @@
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="B27:B30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP016注文ステータス更新(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP016注文ステータス更新(入力)画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A76CEC2-E444-45EB-965F-10E260E46F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098E2C27-9D60-476B-BCC6-7CB5952A587A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>作成者</t>
   </si>
@@ -653,23 +653,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>セキュリティ確認</t>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「不正な操作」</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「ログイン前メニュー」画面が表示される。</t>
     <rPh sb="5" eb="6">
       <t>マエ</t>
@@ -683,50 +666,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>各テキスト入力項目：
-' OR '1'='1
-を入力
-（SQLインジェクション）</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>文字列で表示</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>各テキスト入力項目：
-&lt;script&gt;&lt;/script&gt;
-（XSS）</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メニュー画面へ遷移し、セッションが破棄される</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -762,6 +701,43 @@
     </rPh>
     <rPh sb="75" eb="77">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ確認</t>
+  </si>
+  <si>
+    <t>そのままの画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川・高良</t>
+    <rPh sb="0" eb="2">
+      <t>タチカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーページに行く（修正済み）</t>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1069,7 +1045,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1123,6 +1099,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1131,13 +1116,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1146,101 +1152,77 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1592,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:G30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1605,31 +1587,33 @@
     <col min="3" max="6" width="7.1796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
     <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
-    <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.26953125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="15.08984375" style="4" customWidth="1"/>
     <col min="16" max="17" width="17.1796875" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1644,23 +1628,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="35" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1670,53 +1654,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="34" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1725,20 +1711,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1748,85 +1734,103 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="18" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
     </row>
@@ -1835,21 +1839,27 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="18" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
@@ -1858,21 +1868,27 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="18" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
     </row>
@@ -1881,21 +1897,27 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="18" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
@@ -1904,21 +1926,27 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="18" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
@@ -1927,21 +1955,27 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="18" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
@@ -1950,23 +1984,29 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
@@ -1975,23 +2015,29 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="18" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
@@ -2000,21 +2046,27 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="18" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
     </row>
@@ -2023,21 +2075,27 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="18" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
@@ -2046,21 +2104,27 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="18" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
@@ -2068,314 +2132,375 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="28" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="28" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="28" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="28" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="28" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="27" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="21" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="21" t="s">
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+    </row>
+    <row r="27" spans="1:17" ht="56.5" customHeight="1">
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-    </row>
-    <row r="27" spans="1:17" ht="62" customHeight="1">
-      <c r="A27" s="6">
-        <v>22</v>
-      </c>
-      <c r="B27" s="24" t="s">
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21" t="s">
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="17"/>
-    </row>
-    <row r="28" spans="1:17" ht="61" customHeight="1">
-      <c r="A28" s="6">
-        <v>23</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="17"/>
     </row>
-    <row r="29" spans="1:17" ht="56.5" customHeight="1">
-      <c r="A29" s="6">
-        <v>24</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="17"/>
-    </row>
-    <row r="30" spans="1:17" ht="58.5" customHeight="1">
-      <c r="A30" s="6">
-        <v>25</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="17"/>
-    </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
+  <mergeCells count="62">
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:L27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="C15:G18"/>
     <mergeCell ref="C20:G20"/>
@@ -2383,60 +2508,6 @@
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="B27:B30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
